--- a/Fases_de_desarrollo/01-Inicio/05- Gestion de Proyecto/TP052-OO-PCU y PCU Ajustados_Testify V3.xlsx
+++ b/Fases_de_desarrollo/01-Inicio/05- Gestion de Proyecto/TP052-OO-PCU y PCU Ajustados_Testify V3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduar\Documents\GitHub\Testify\Fases_de_desarrollo\01-Inicio\05- Gestion de Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11430" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Proyecto" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="126">
   <si>
     <t>Descripción</t>
   </si>
@@ -634,63 +634,15 @@
     <t>Proyecto: Testify</t>
   </si>
   <si>
-    <t>CU02 - Asignar Caso de Uso</t>
-  </si>
-  <si>
-    <t>CU03 - Adjuntar Documentos</t>
-  </si>
-  <si>
-    <t>CU04 - Comentar Caso de Uso</t>
-  </si>
-  <si>
-    <t>CU07 - Actualizar Resultados de Pasos a Seguir</t>
-  </si>
-  <si>
-    <t>CU09 - Configurar Tasa Mínima de Aprobación</t>
-  </si>
-  <si>
-    <t>CU10 - Consultar Proyectos</t>
-  </si>
-  <si>
-    <t>CU12 - Consultar Hitos</t>
-  </si>
-  <si>
-    <t>CU06 - Consultar Casos de Uso</t>
-  </si>
-  <si>
     <t>CU08 - CRUD Proyectos</t>
   </si>
   <si>
     <t>CU11 - CRUD Hito</t>
   </si>
   <si>
-    <t>CU13 - CRUD Permisos</t>
-  </si>
-  <si>
     <t>CU14 - CRUD Roles</t>
   </si>
   <si>
-    <t>CU15 - Consultar Roles</t>
-  </si>
-  <si>
-    <t>CU16 - CRUD Usuarios</t>
-  </si>
-  <si>
-    <t>CU17 - Asignar Rol</t>
-  </si>
-  <si>
-    <t>CU18 - Gestionar Rol Asignado</t>
-  </si>
-  <si>
-    <t>CU19 - Consultar Usuarios</t>
-  </si>
-  <si>
-    <t>CU20 - Asignar Permisos</t>
-  </si>
-  <si>
-    <t>CU21 - Gestionar Permiso Asignado</t>
-  </si>
-  <si>
     <t>Interactúa con el sistema mediante una GUI</t>
   </si>
   <si>
@@ -724,9 +676,6 @@
     <t>CU01 - CRUD Casos de Uso</t>
   </si>
   <si>
-    <t>CU05 - Exportar Casos de Uso y Resultados</t>
-  </si>
-  <si>
     <t>Se requiere autoinstalable</t>
   </si>
   <si>
@@ -758,6 +707,42 @@
   </si>
   <si>
     <t>Todos los miembros parcial-time</t>
+  </si>
+  <si>
+    <t>CU02 - Consultar Caso de Uso</t>
+  </si>
+  <si>
+    <t>CU03 - Asignar Caso de Uso</t>
+  </si>
+  <si>
+    <t>CU04 - Adjuntar documentos</t>
+  </si>
+  <si>
+    <t>CU05 - Comentar Caso de Uso</t>
+  </si>
+  <si>
+    <t>CU06 - Exportar Casos de uso y Resultados</t>
+  </si>
+  <si>
+    <t>CU07- Actualizar pasos a seguir</t>
+  </si>
+  <si>
+    <t>CU09 - Consultar Proyectos</t>
+  </si>
+  <si>
+    <t>CU10 - Consultar Proyectos asignados</t>
+  </si>
+  <si>
+    <t>CU12 - CRUD Permisos</t>
+  </si>
+  <si>
+    <t>CU13 - Consultar Hitos</t>
+  </si>
+  <si>
+    <t>CU15 - CRUD Usuarios</t>
+  </si>
+  <si>
+    <t>CU16 - Gestionar Rol</t>
   </si>
 </sst>
 </file>
@@ -1632,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1716,7 +1701,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E8" s="30">
         <f>IF(C8="Simple",1,IF(C8="Intermedio",2,IF(C8="Complejo",3,"error")))</f>
@@ -1739,7 +1724,7 @@
         <v>74</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E9" s="30">
         <f>IF(C9="Simple",1,IF(C9="Intermedio",2,IF(C9="Complejo",3,"error")))</f>
@@ -1762,7 +1747,7 @@
         <v>74</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E10" s="30">
         <f>IF(C10="Simple",1,IF(C10="Intermedio",2,IF(C10="Complejo",3,"error")))</f>
@@ -1785,7 +1770,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E11" s="30">
         <f>IF(C11="Simple",1,IF(C11="Intermedio",2,IF(C11="Complejo",3,"error")))</f>
@@ -1808,7 +1793,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E12" s="30">
         <f>IF(C12="Simple",1,IF(C12="Intermedio",2,IF(C12="Complejo",3,"error")))</f>
@@ -1877,11 +1862,11 @@
     </row>
     <row r="17" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="30" t="str">
         <f t="shared" ref="E17:E37" si="0">IF($D17&gt;0,IF($D17&lt;=3,"Simple",IF(AND($D17&gt;3,$D17&lt;7),"Intermedio",IF($D17&gt;=7,"Complejo","error"))),"-")</f>
@@ -1898,7 +1883,7 @@
     </row>
     <row r="18" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="43">
@@ -1919,11 +1904,11 @@
     </row>
     <row r="19" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1940,11 +1925,11 @@
     </row>
     <row r="20" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1961,11 +1946,11 @@
     </row>
     <row r="21" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1982,11 +1967,11 @@
     </row>
     <row r="22" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2003,11 +1988,11 @@
     </row>
     <row r="23" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="30" t="str">
         <f t="shared" si="0"/>
@@ -2024,7 +2009,7 @@
     </row>
     <row r="24" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="43">
@@ -2045,7 +2030,7 @@
     </row>
     <row r="25" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="43">
@@ -2066,7 +2051,7 @@
     </row>
     <row r="26" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="43">
@@ -2087,7 +2072,7 @@
     </row>
     <row r="27" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="43">
@@ -2108,19 +2093,19 @@
     </row>
     <row r="28" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>Intermedio</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
@@ -2129,19 +2114,19 @@
     </row>
     <row r="29" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Intermedio</v>
+        <v>Simple</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -2150,7 +2135,7 @@
     </row>
     <row r="30" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="43">
@@ -2171,19 +2156,19 @@
     </row>
     <row r="31" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>Intermedio</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
@@ -2192,19 +2177,19 @@
     </row>
     <row r="32" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Intermedio</v>
+        <v>Simple</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
@@ -2212,20 +2197,16 @@
       <c r="T32" s="22"/>
     </row>
     <row r="33" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="42"/>
-      <c r="D33" s="43">
-        <v>2</v>
-      </c>
+      <c r="D33" s="43"/>
       <c r="E33" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>-</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
@@ -2233,20 +2214,16 @@
       <c r="T33" s="22"/>
     </row>
     <row r="34" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="43">
-        <v>4</v>
-      </c>
+      <c r="D34" s="43"/>
       <c r="E34" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Intermedio</v>
+        <v>-</v>
       </c>
       <c r="F34" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -2254,20 +2231,16 @@
       <c r="T34" s="22"/>
     </row>
     <row r="35" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="42"/>
-      <c r="D35" s="43">
-        <v>3</v>
-      </c>
+      <c r="D35" s="43"/>
       <c r="E35" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>-</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
@@ -2275,20 +2248,16 @@
       <c r="T35" s="22"/>
     </row>
     <row r="36" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="42"/>
-      <c r="D36" s="43">
-        <v>3</v>
-      </c>
+      <c r="D36" s="43"/>
       <c r="E36" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>-</v>
       </c>
       <c r="F36" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
@@ -2296,20 +2265,16 @@
       <c r="T36" s="22"/>
     </row>
     <row r="37" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="43">
-        <v>4</v>
-      </c>
+      <c r="D37" s="43"/>
       <c r="E37" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Intermedio</v>
+        <v>-</v>
       </c>
       <c r="F37" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
@@ -2325,7 +2290,7 @@
       <c r="E38" s="96"/>
       <c r="F38" s="45">
         <f>SUM(F17:F37)</f>
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="H38" s="17"/>
       <c r="K38" s="22"/>
@@ -2345,7 +2310,7 @@
       <c r="E41" s="94"/>
       <c r="F41" s="26">
         <f>TAW+TBF</f>
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="H41" s="17"/>
     </row>
@@ -2940,7 +2905,7 @@
       <c r="F76" s="92"/>
       <c r="G76" s="50">
         <f>UUCP * TCF *EF</f>
-        <v>121.6</v>
+        <v>94.999999999999986</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
@@ -2979,15 +2944,15 @@
       </c>
       <c r="B82" s="63">
         <f>$G$76*B80</f>
-        <v>2432</v>
+        <v>1899.9999999999998</v>
       </c>
       <c r="C82" s="63">
         <f>$G$76*C80</f>
-        <v>3404.7999999999997</v>
+        <v>2659.9999999999995</v>
       </c>
       <c r="D82" s="63">
         <f>$G$76*D80</f>
-        <v>486.4</v>
+        <v>379.99999999999994</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2996,15 +2961,15 @@
       </c>
       <c r="B83" s="65">
         <f>B82/(8*5*4+2)</f>
-        <v>15.012345679012345</v>
+        <v>11.728395061728394</v>
       </c>
       <c r="C83" s="65">
         <f>C82/(8*5*4+2)</f>
-        <v>21.017283950617283</v>
+        <v>16.41975308641975</v>
       </c>
       <c r="D83" s="65">
         <f>D82/(8*5*4+2)</f>
-        <v>3.0024691358024689</v>
+        <v>2.3456790123456788</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3027,98 +2992,98 @@
       </c>
       <c r="B85" s="65">
         <f>B83/B84</f>
-        <v>3.7530864197530862</v>
+        <v>2.9320987654320985</v>
       </c>
       <c r="C85" s="65">
         <f>C83/C84</f>
-        <v>5.2543209876543209</v>
+        <v>4.1049382716049374</v>
       </c>
       <c r="D85" s="65">
         <f>D83/D84</f>
-        <v>0.75061728395061722</v>
+        <v>0.58641975308641969</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C88" s="67" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D88" s="68" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E88" s="66" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C89" s="25" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D89" s="71">
         <v>10</v>
       </c>
       <c r="E89" s="69">
         <f>E90/2</f>
-        <v>121.6</v>
+        <v>94.999999999999986</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C90" s="25" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D90" s="71">
         <v>20</v>
       </c>
       <c r="E90" s="69">
         <f>E91/2</f>
-        <v>243.2</v>
+        <v>189.99999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C91" s="25" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D91" s="71">
         <v>40</v>
       </c>
       <c r="E91" s="70">
         <f>D82</f>
-        <v>486.4</v>
+        <v>379.99999999999994</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C92" s="25" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D92" s="71">
         <v>15</v>
       </c>
       <c r="E92" s="69">
         <f>(15*(SUM(E89:E91))/SUM(D89:D91))</f>
-        <v>182.39999999999998</v>
+        <v>142.49999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C93" s="25" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D93" s="71">
         <v>15</v>
       </c>
       <c r="E93" s="69">
         <f>E92</f>
-        <v>182.39999999999998</v>
+        <v>142.49999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C94" s="25" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D94" s="71">
         <v>100</v>
       </c>
       <c r="E94" s="69">
         <f>SUM(E89:E93)</f>
-        <v>1216</v>
+        <v>949.99999999999989</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3153,7 +3118,7 @@
       </c>
       <c r="D100" s="72">
         <f>E94</f>
-        <v>1216</v>
+        <v>949.99999999999989</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
@@ -3163,7 +3128,7 @@
       </c>
       <c r="D101" s="73">
         <f>D100/(8*5*4+2)</f>
-        <v>7.5061728395061724</v>
+        <v>5.8641975308641969</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
@@ -3182,7 +3147,7 @@
       </c>
       <c r="D103" s="73">
         <f>D101/D102</f>
-        <v>1.8765432098765431</v>
+        <v>1.4660493827160492</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
@@ -3218,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3302,7 +3267,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E8" s="30">
         <f>IF(C8="Simple",1,IF(C8="Intermedio",2,IF(C8="Complejo",3,"error")))</f>
@@ -3325,7 +3290,7 @@
         <v>74</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E9" s="30">
         <f>IF(C9="Simple",1,IF(C9="Intermedio",2,IF(C9="Complejo",3,"error")))</f>
@@ -3348,7 +3313,7 @@
         <v>74</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E10" s="30">
         <f>IF(C10="Simple",1,IF(C10="Intermedio",2,IF(C10="Complejo",3,"error")))</f>
@@ -3371,7 +3336,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E11" s="30">
         <f>IF(C11="Simple",1,IF(C11="Intermedio",2,IF(C11="Complejo",3,"error")))</f>
@@ -3394,7 +3359,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E12" s="30">
         <f>IF(C12="Simple",1,IF(C12="Intermedio",2,IF(C12="Complejo",3,"error")))</f>
@@ -3463,7 +3428,7 @@
     </row>
     <row r="17" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="43">
@@ -3484,7 +3449,7 @@
     </row>
     <row r="18" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="43">
@@ -3505,11 +3470,11 @@
     </row>
     <row r="19" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3526,11 +3491,11 @@
     </row>
     <row r="20" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3547,11 +3512,11 @@
     </row>
     <row r="21" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3568,11 +3533,11 @@
     </row>
     <row r="22" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3589,11 +3554,11 @@
     </row>
     <row r="23" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="30" t="str">
         <f t="shared" si="0"/>
@@ -3610,7 +3575,7 @@
     </row>
     <row r="24" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="43">
@@ -3631,7 +3596,7 @@
     </row>
     <row r="25" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="43">
@@ -3652,7 +3617,7 @@
     </row>
     <row r="26" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="43">
@@ -3673,7 +3638,7 @@
     </row>
     <row r="27" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="43">
@@ -3694,19 +3659,19 @@
     </row>
     <row r="28" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>Intermedio</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
@@ -3715,19 +3680,19 @@
     </row>
     <row r="29" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Intermedio</v>
+        <v>Simple</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -3736,7 +3701,7 @@
     </row>
     <row r="30" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="43">
@@ -3757,19 +3722,19 @@
     </row>
     <row r="31" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>Intermedio</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
@@ -3778,19 +3743,19 @@
     </row>
     <row r="32" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Intermedio</v>
+        <v>Simple</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
@@ -3798,20 +3763,16 @@
       <c r="T32" s="22"/>
     </row>
     <row r="33" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="42"/>
-      <c r="D33" s="43">
-        <v>2</v>
-      </c>
+      <c r="D33" s="43"/>
       <c r="E33" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>-</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
@@ -3819,20 +3780,16 @@
       <c r="T33" s="22"/>
     </row>
     <row r="34" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="43">
-        <v>4</v>
-      </c>
+      <c r="D34" s="43"/>
       <c r="E34" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Intermedio</v>
+        <v>-</v>
       </c>
       <c r="F34" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -3840,20 +3797,16 @@
       <c r="T34" s="22"/>
     </row>
     <row r="35" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="42"/>
-      <c r="D35" s="43">
-        <v>3</v>
-      </c>
+      <c r="D35" s="43"/>
       <c r="E35" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>-</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
@@ -3861,20 +3814,16 @@
       <c r="T35" s="22"/>
     </row>
     <row r="36" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="42"/>
-      <c r="D36" s="43">
-        <v>3</v>
-      </c>
+      <c r="D36" s="43"/>
       <c r="E36" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>-</v>
       </c>
       <c r="F36" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
@@ -3882,20 +3831,16 @@
       <c r="T36" s="22"/>
     </row>
     <row r="37" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="43">
-        <v>4</v>
-      </c>
+      <c r="D37" s="43"/>
       <c r="E37" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Intermedio</v>
+        <v>-</v>
       </c>
       <c r="F37" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
@@ -3911,7 +3856,7 @@
       <c r="E38" s="96"/>
       <c r="F38" s="45">
         <f>SUM(F17:F37)</f>
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="H38" s="17"/>
       <c r="K38" s="22"/>
@@ -3931,7 +3876,7 @@
       <c r="E41" s="94"/>
       <c r="F41" s="26">
         <f>TAW+TBF</f>
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="H41" s="17"/>
     </row>
@@ -4073,7 +4018,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E50" s="38">
         <v>0.5</v>
@@ -4117,7 +4062,7 @@
         <v>22</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E52" s="38">
         <v>2</v>
@@ -4139,7 +4084,7 @@
         <v>22</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E53" s="38">
         <v>1</v>
@@ -4181,7 +4126,7 @@
         <v>22</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E55" s="39">
         <v>1</v>
@@ -4225,7 +4170,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E57" s="38">
         <v>1</v>
@@ -4311,7 +4256,7 @@
         <v>25</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E63" s="38">
         <v>1.5</v>
@@ -4353,7 +4298,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E65" s="38">
         <v>1</v>
@@ -4374,7 +4319,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E66" s="38">
         <v>0.5</v>
@@ -4395,7 +4340,7 @@
         <v>26</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E67" s="38">
         <v>1</v>
@@ -4437,7 +4382,7 @@
         <v>51</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E69" s="38">
         <v>-1</v>
@@ -4528,7 +4473,7 @@
       <c r="F76" s="92"/>
       <c r="G76" s="50">
         <f>UUCP * TCF *EF</f>
-        <v>245.50399999999999</v>
+        <v>191.79999999999998</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
@@ -4567,15 +4512,15 @@
       </c>
       <c r="B82" s="63">
         <f>$G$76*B80</f>
-        <v>4910.08</v>
+        <v>3835.9999999999995</v>
       </c>
       <c r="C82" s="63">
         <f>$G$76*C80</f>
-        <v>4910.08</v>
+        <v>3835.9999999999995</v>
       </c>
       <c r="D82" s="63">
         <f>$G$76*D80</f>
-        <v>982.01599999999996</v>
+        <v>767.19999999999993</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -4584,15 +4529,15 @@
       </c>
       <c r="B83" s="65">
         <f>B82/(8*5*4+2)</f>
-        <v>30.309135802469136</v>
+        <v>23.679012345679009</v>
       </c>
       <c r="C83" s="65">
         <f>C82/(8*5*4+2)</f>
-        <v>30.309135802469136</v>
+        <v>23.679012345679009</v>
       </c>
       <c r="D83" s="65">
         <f>D82/(8*5*4+2)</f>
-        <v>6.0618271604938272</v>
+        <v>4.7358024691358018</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4615,98 +4560,98 @@
       </c>
       <c r="B85" s="65">
         <f>B83/B84</f>
-        <v>7.577283950617284</v>
+        <v>5.9197530864197523</v>
       </c>
       <c r="C85" s="65">
         <f>C83/C84</f>
-        <v>7.577283950617284</v>
+        <v>5.9197530864197523</v>
       </c>
       <c r="D85" s="65">
         <f>D83/D84</f>
-        <v>1.5154567901234568</v>
+        <v>1.1839506172839505</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C88" s="67" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D88" s="68" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E88" s="83" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C89" s="25" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D89" s="71">
         <v>10</v>
       </c>
       <c r="E89" s="69">
         <f>E90/2</f>
-        <v>245.50399999999999</v>
+        <v>191.79999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C90" s="25" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D90" s="71">
         <v>20</v>
       </c>
       <c r="E90" s="69">
         <f>E91/2</f>
-        <v>491.00799999999998</v>
+        <v>383.59999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C91" s="25" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D91" s="71">
         <v>40</v>
       </c>
       <c r="E91" s="70">
         <f>D82</f>
-        <v>982.01599999999996</v>
+        <v>767.19999999999993</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C92" s="25" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D92" s="71">
         <v>15</v>
       </c>
       <c r="E92" s="69">
         <f>(15*(SUM(E89:E91))/SUM(D89:D91))</f>
-        <v>368.25599999999997</v>
+        <v>287.7</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C93" s="25" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D93" s="71">
         <v>15</v>
       </c>
       <c r="E93" s="69">
         <f>E92</f>
-        <v>368.25599999999997</v>
+        <v>287.7</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C94" s="25" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D94" s="71">
         <v>100</v>
       </c>
       <c r="E94" s="69">
         <f>SUM(E89:E93)</f>
-        <v>2455.0399999999995</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4741,7 +4686,7 @@
       </c>
       <c r="D100" s="72">
         <f>E94</f>
-        <v>2455.0399999999995</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
@@ -4751,7 +4696,7 @@
       </c>
       <c r="D101" s="73">
         <f>D100/(4*5*4+2)</f>
-        <v>29.939512195121946</v>
+        <v>23.390243902439025</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
@@ -4770,7 +4715,7 @@
       </c>
       <c r="D103" s="73">
         <f>D101/D102</f>
-        <v>7.4848780487804865</v>
+        <v>5.8475609756097562</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
@@ -4805,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T104"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4889,7 +4834,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E8" s="30">
         <f>IF(C8="Simple",1,IF(C8="Intermedio",2,IF(C8="Complejo",3,"error")))</f>
@@ -4912,7 +4857,7 @@
         <v>74</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E9" s="30">
         <f>IF(C9="Simple",1,IF(C9="Intermedio",2,IF(C9="Complejo",3,"error")))</f>
@@ -4935,7 +4880,7 @@
         <v>74</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E10" s="30">
         <f>IF(C10="Simple",1,IF(C10="Intermedio",2,IF(C10="Complejo",3,"error")))</f>
@@ -4958,7 +4903,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E11" s="30">
         <f>IF(C11="Simple",1,IF(C11="Intermedio",2,IF(C11="Complejo",3,"error")))</f>
@@ -4981,7 +4926,7 @@
         <v>74</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E12" s="30">
         <f>IF(C12="Simple",1,IF(C12="Intermedio",2,IF(C12="Complejo",3,"error")))</f>
@@ -5050,7 +4995,7 @@
     </row>
     <row r="17" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="43">
@@ -5071,7 +5016,7 @@
     </row>
     <row r="18" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="43">
@@ -5092,11 +5037,11 @@
     </row>
     <row r="19" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="30" t="str">
         <f t="shared" si="0"/>
@@ -5113,11 +5058,11 @@
     </row>
     <row r="20" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="30" t="str">
         <f t="shared" si="0"/>
@@ -5134,11 +5079,11 @@
     </row>
     <row r="21" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="30" t="str">
         <f t="shared" si="0"/>
@@ -5155,11 +5100,11 @@
     </row>
     <row r="22" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="30" t="str">
         <f t="shared" si="0"/>
@@ -5176,11 +5121,11 @@
     </row>
     <row r="23" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="30" t="str">
         <f t="shared" si="0"/>
@@ -5197,7 +5142,7 @@
     </row>
     <row r="24" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="43">
@@ -5218,7 +5163,7 @@
     </row>
     <row r="25" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="43">
@@ -5239,7 +5184,7 @@
     </row>
     <row r="26" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="43">
@@ -5260,7 +5205,7 @@
     </row>
     <row r="27" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="43">
@@ -5281,19 +5226,19 @@
     </row>
     <row r="28" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>Intermedio</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
@@ -5302,19 +5247,19 @@
     </row>
     <row r="29" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Intermedio</v>
+        <v>Simple</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -5323,7 +5268,7 @@
     </row>
     <row r="30" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="43">
@@ -5344,19 +5289,19 @@
     </row>
     <row r="31" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>Intermedio</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
@@ -5365,19 +5310,19 @@
     </row>
     <row r="32" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Intermedio</v>
+        <v>Simple</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
@@ -5385,20 +5330,16 @@
       <c r="T32" s="22"/>
     </row>
     <row r="33" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="42"/>
-      <c r="D33" s="43">
-        <v>2</v>
-      </c>
+      <c r="D33" s="43"/>
       <c r="E33" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>-</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
@@ -5406,20 +5347,16 @@
       <c r="T33" s="22"/>
     </row>
     <row r="34" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="43">
-        <v>4</v>
-      </c>
+      <c r="D34" s="43"/>
       <c r="E34" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Intermedio</v>
+        <v>-</v>
       </c>
       <c r="F34" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -5427,20 +5364,16 @@
       <c r="T34" s="22"/>
     </row>
     <row r="35" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="42"/>
-      <c r="D35" s="43">
-        <v>3</v>
-      </c>
+      <c r="D35" s="43"/>
       <c r="E35" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>-</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
@@ -5448,20 +5381,16 @@
       <c r="T35" s="22"/>
     </row>
     <row r="36" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="42"/>
-      <c r="D36" s="43">
-        <v>3</v>
-      </c>
+      <c r="D36" s="43"/>
       <c r="E36" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Simple</v>
+        <v>-</v>
       </c>
       <c r="F36" s="30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
@@ -5469,20 +5398,16 @@
       <c r="T36" s="22"/>
     </row>
     <row r="37" spans="2:20" s="19" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="43">
-        <v>4</v>
-      </c>
+      <c r="D37" s="43"/>
       <c r="E37" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Intermedio</v>
+        <v>-</v>
       </c>
       <c r="F37" s="30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
@@ -5498,7 +5423,7 @@
       <c r="E38" s="96"/>
       <c r="F38" s="45">
         <f>SUM(F17:F37)</f>
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="H38" s="17"/>
       <c r="K38" s="22"/>
@@ -5518,7 +5443,7 @@
       <c r="E41" s="94"/>
       <c r="F41" s="26">
         <f>TAW+TBF</f>
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="H41" s="17"/>
     </row>
@@ -5917,7 +5842,7 @@
         <v>25</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E64" s="38">
         <v>0.5</v>
@@ -6113,7 +6038,7 @@
       <c r="F76" s="92"/>
       <c r="G76" s="50">
         <f>UUCP * TCF *EF</f>
-        <v>77.607999999999976</v>
+        <v>60.631249999999987</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
@@ -6152,15 +6077,15 @@
       </c>
       <c r="B82" s="63">
         <f>$G$76*B80</f>
-        <v>1552.1599999999994</v>
+        <v>1212.6249999999998</v>
       </c>
       <c r="C82" s="63">
         <f>$G$76*C80</f>
-        <v>2793.887999999999</v>
+        <v>2182.7249999999995</v>
       </c>
       <c r="D82" s="63">
         <f>$G$76*D80</f>
-        <v>310.4319999999999</v>
+        <v>242.52499999999995</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -6169,15 +6094,15 @@
       </c>
       <c r="B83" s="65">
         <f>B82/(8*5*4+2)</f>
-        <v>9.5812345679012303</v>
+        <v>7.4853395061728385</v>
       </c>
       <c r="C83" s="65">
         <f>C82/(8*5*4+2)</f>
-        <v>17.246222222222215</v>
+        <v>13.473611111111108</v>
       </c>
       <c r="D83" s="65">
         <f>D82/(8*5*4+2)</f>
-        <v>1.9162469135802462</v>
+        <v>1.4970679012345676</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -6200,98 +6125,98 @@
       </c>
       <c r="B85" s="65">
         <f>B83/B84</f>
-        <v>2.3953086419753076</v>
+        <v>1.8713348765432096</v>
       </c>
       <c r="C85" s="65">
         <f>C83/C84</f>
-        <v>4.3115555555555538</v>
+        <v>3.368402777777777</v>
       </c>
       <c r="D85" s="65">
         <f>D83/D84</f>
-        <v>0.47906172839506156</v>
+        <v>0.37426697530864189</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C88" s="67" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D88" s="68" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E88" s="83" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C89" s="25" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D89" s="71">
         <v>10</v>
       </c>
       <c r="E89" s="69">
         <f>E90/2</f>
-        <v>77.607999999999976</v>
+        <v>60.631249999999987</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C90" s="25" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="D90" s="71">
         <v>20</v>
       </c>
       <c r="E90" s="69">
         <f>E91/2</f>
-        <v>155.21599999999995</v>
+        <v>121.26249999999997</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C91" s="25" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D91" s="71">
         <v>40</v>
       </c>
       <c r="E91" s="70">
         <f>D82</f>
-        <v>310.4319999999999</v>
+        <v>242.52499999999995</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C92" s="25" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D92" s="71">
         <v>15</v>
       </c>
       <c r="E92" s="69">
         <f>(15*(SUM(E89:E91))/SUM(D89:D91))</f>
-        <v>116.41199999999998</v>
+        <v>90.946874999999991</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C93" s="25" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D93" s="71">
         <v>15</v>
       </c>
       <c r="E93" s="69">
         <f>E92</f>
-        <v>116.41199999999998</v>
+        <v>90.946874999999991</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C94" s="25" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D94" s="71">
         <v>100</v>
       </c>
       <c r="E94" s="69">
         <f>SUM(E89:E93)</f>
-        <v>776.07999999999993</v>
+        <v>606.31249999999989</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -6326,7 +6251,7 @@
       </c>
       <c r="D100" s="72">
         <f>E94</f>
-        <v>776.07999999999993</v>
+        <v>606.31249999999989</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
@@ -6336,7 +6261,7 @@
       </c>
       <c r="D101" s="73">
         <f>D100/(8*5*4+2)</f>
-        <v>4.7906172839506169</v>
+        <v>3.7426697530864192</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
@@ -6355,7 +6280,7 @@
       </c>
       <c r="D103" s="73">
         <f>D101/D102</f>
-        <v>1.1976543209876542</v>
+        <v>0.93566743827160481</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
